--- a/Data/InvalidPumpsFile.xlsx
+++ b/Data/InvalidPumpsFile.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nalsamadi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Python\ACE_Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Alaris GH_G</t>
   </si>
@@ -36,16 +36,42 @@
   </si>
   <si>
     <t>1352--00121</t>
+  </si>
+  <si>
+    <t>1352--00121*$</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>1352-00121</t>
+  </si>
+  <si>
+    <t>FHKHD%&amp;*&amp;*&amp;#^#</t>
+  </si>
+  <si>
+    <t>1352-0012H</t>
+  </si>
+  <si>
+    <t>Alaris-PC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -68,13 +94,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -413,19 +442,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -433,7 +463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -441,9 +471,39 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="FHKHD%&amp;*&amp;*&amp;#^#@"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Data/InvalidPumpsFile.xlsx
+++ b/Data/InvalidPumpsFile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Alaris GH_G</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Alaris-PC</t>
+  </si>
+  <si>
+    <t>2342qasdqw</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
